--- a/target/classes/testData/CogmentoTestData.xlsx
+++ b/target/classes/testData/CogmentoTestData.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkati\Downloads\Katia-cogmento-crm-automatiaon\src\main\resources\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9325E9-2E29-41C2-95E8-18FE6EABF713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15500"/>
+    <workbookView xWindow="4935" yWindow="1470" windowWidth="21600" windowHeight="11970" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
     <sheet name="calls" sheetId="2" r:id="rId2"/>
     <sheet name="calendar" sheetId="3" r:id="rId3"/>
-    <sheet name="documents" sheetId="4" r:id="rId4"/>
+    <sheet name="deals" sheetId="5" r:id="rId4"/>
+    <sheet name="documents" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>firstname</t>
   </si>
@@ -212,19 +219,37 @@
   </si>
   <si>
     <t>cal</t>
+  </si>
+  <si>
+    <t>prospect</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>unassigned</t>
+  </si>
+  <si>
+    <t>anual</t>
+  </si>
+  <si>
+    <t>selectFields</t>
+  </si>
+  <si>
+    <t>TechCenture</t>
+  </si>
+  <si>
+    <t>savePipeplineAs</t>
+  </si>
+  <si>
+    <t>confirmDeletion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,345 +258,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -579,317 +302,47 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1147,29 +600,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AK5" sqref="AK5"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="20.1875" customWidth="1"/>
-    <col min="8" max="8" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="36.9375" customWidth="1"/>
-    <col min="12" max="13" width="13.625" customWidth="1"/>
-    <col min="17" max="17" width="11.4375" customWidth="1"/>
-    <col min="19" max="19" width="12.4375" customWidth="1"/>
-    <col min="21" max="21" width="11.625"/>
-    <col min="22" max="22" width="10.4375" customWidth="1"/>
-    <col min="24" max="24" width="16.3125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="37" customWidth="1"/>
+    <col min="12" max="13" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125"/>
+    <col min="22" max="22" width="10.42578125" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -1389,24 +842,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="kevin.lee@yahoo.com"/>
-    <hyperlink ref="M2" r:id="rId2" display="kevin.lee@linkedin.com" tooltip="mailto:kevin.lee@linkedin.com"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M2" r:id="rId2" tooltip="mailto:kevin.lee@linkedin.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1415,38 +864,94 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="53.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2">
+        <v>44957</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C79A4EB-347D-4107-9046-127E08006059}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/target/classes/testData/CogmentoTestData.xlsx
+++ b/target/classes/testData/CogmentoTestData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkati\Downloads\Katia-cogmento-crm-automatiaon\src\main\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9325E9-2E29-41C2-95E8-18FE6EABF713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7642843-F3A4-489D-A2BE-752514CF9D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="1470" windowWidth="21600" windowHeight="11970" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
     <sheet name="calls" sheetId="2" r:id="rId2"/>
-    <sheet name="calendar" sheetId="3" r:id="rId3"/>
+    <sheet name="calendar" sheetId="6" r:id="rId3"/>
     <sheet name="deals" sheetId="5" r:id="rId4"/>
     <sheet name="documents" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>firstname</t>
   </si>
@@ -243,6 +243,42 @@
   </si>
   <si>
     <t>confirmDeletion</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>Bosco Place</t>
+  </si>
+  <si>
+    <t>re union</t>
+  </si>
+  <si>
+    <t>Ferndale, Michigan</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>addNote</t>
+  </si>
+  <si>
+    <t>Remember Me</t>
   </si>
 </sst>
 </file>
@@ -868,24 +904,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A442C6F6-62B3-405F-B3D9-88E0DCABA9D0}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2">
-        <v>44957</v>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -893,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C79A4EB-347D-4107-9046-127E08006059}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
